--- a/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.1.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.1.xlsx
@@ -891,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -1395,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1423,7 +1423,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1493,7 +1493,7 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -1577,7 +1577,7 @@
         <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1759,7 +1759,7 @@
         <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -2165,7 +2165,7 @@
         <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -2361,7 +2361,7 @@
         <v>25</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -2459,7 +2459,7 @@
         <v>46</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
@@ -2501,7 +2501,7 @@
         <v>21</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
@@ -2599,7 +2599,7 @@
         <v>151</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D125" t="s">
         <v>7</v>
